--- a/data/people.xlsx
+++ b/data/people.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>age</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>age</t>
+    <t>22</t>
   </si>
   <si>
     <t>Alice</t>
   </si>
   <si>
-    <t>22</t>
+    <t>25</t>
   </si>
   <si>
     <t>Bob</t>
   </si>
   <si>
-    <t>25</t>
+    <t>пусто</t>
   </si>
   <si>
     <t>John</t>
-  </si>
-  <si>
-    <t>пусто</t>
   </si>
 </sst>
 </file>

--- a/data/people.xlsx
+++ b/data/people.xlsx
@@ -374,6 +374,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
